--- a/ReporteMensual_10-2022.xlsx
+++ b/ReporteMensual_10-2022.xlsx
@@ -6,15 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Medicamentos No Genericos" r:id="rId3" sheetId="1"/>
-    <sheet name="Medicamentos Genéricos" r:id="rId4" sheetId="2"/>
-    <sheet name="Medicamentos Normales" r:id="rId5" sheetId="3"/>
+    <sheet name="Antipsicóticos" r:id="rId3" sheetId="1"/>
+    <sheet name="Estabilizadores de ánimo" r:id="rId4" sheetId="2"/>
+    <sheet name="Antidepresivos" r:id="rId5" sheetId="3"/>
+    <sheet name="Estimulantes" r:id="rId6" sheetId="4"/>
+    <sheet name="Sedantes" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Medicamento</t>
   </si>
@@ -22,31 +24,73 @@
     <t>Cantidad de unidades registradas</t>
   </si>
   <si>
-    <t>Algodon</t>
-  </si>
-  <si>
-    <t>Suero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diclofenaco sódico </t>
-  </si>
-  <si>
-    <t>Atropina sulfato</t>
-  </si>
-  <si>
-    <t>Gasa</t>
-  </si>
-  <si>
-    <t>Xender</t>
-  </si>
-  <si>
-    <t>Acetaminofen</t>
-  </si>
-  <si>
-    <t>Paracetamol</t>
-  </si>
-  <si>
-    <t>Diclofenaco resinato</t>
+    <t>Olanzapina</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>Risperidona</t>
+  </si>
+  <si>
+    <t>Paliperidona</t>
+  </si>
+  <si>
+    <t>Lamotrigina</t>
+  </si>
+  <si>
+    <t>Quetiapina</t>
+  </si>
+  <si>
+    <t>Acido Valproico</t>
+  </si>
+  <si>
+    <t>Litio</t>
+  </si>
+  <si>
+    <t>Sertralina</t>
+  </si>
+  <si>
+    <t>Escitalopram</t>
+  </si>
+  <si>
+    <t>Fluoxetina</t>
+  </si>
+  <si>
+    <t>Desvenlafaxina</t>
+  </si>
+  <si>
+    <t>Venlafaxina</t>
+  </si>
+  <si>
+    <t>Bupropión</t>
+  </si>
+  <si>
+    <t>Metilfenidato</t>
+  </si>
+  <si>
+    <t>Modafinilo</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Diazepam</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>Alprazolam</t>
+  </si>
+  <si>
+    <t>Bromazepam</t>
+  </si>
+  <si>
+    <t>Ketamina sola</t>
+  </si>
+  <si>
+    <t>Antibióticos</t>
   </si>
 </sst>
 </file>
@@ -188,144 +232,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Medicamentos No Genericos</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Medicamentos No Genericos'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Algodon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suero</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Diclofenaco sódico </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Atropina sulfato</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Medicamentos No Genericos'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="0"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="false"/>
-        <c:axPos val="b"/>
-        <c:numFmt sourceLinked="true" formatCode=""/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="false"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="false"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="0"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="tr"/>
-      <c:overlay val="false"/>
-    </c:legend>
-    <c:plotVisOnly val="true"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm0"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="9267825" cy="1905000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -349,7 +257,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -357,7 +265,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -365,7 +273,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -378,13 +286,12 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,10 +311,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" t="n" s="2">
-        <v>14.0</v>
+      <c r="B3" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -417,13 +348,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.96484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -440,7 +371,169 @@
         <v>10</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>45.0</v>
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.01171875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.01171875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" t="n" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B6" t="n" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" t="n" s="2">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/ReporteMensual_10-2022.xlsx
+++ b/ReporteMensual_10-2022.xlsx
@@ -232,8 +232,223 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3290605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4762500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
@@ -286,11 +501,12 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -343,11 +559,12 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -416,11 +633,12 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -457,11 +675,12 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -538,5 +757,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>